--- a/Datas/Items.xlsx
+++ b/Datas/Items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\SunHeSLGConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9388F69-644A-4527-80ED-625C5702256F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{778D2418-66AA-46B3-B99E-BC6DDB8C972F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BA0B8D6F-A68B-456F-A5A6-9F876B2FDE92}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{BA0B8D6F-A68B-456F-A5A6-9F876B2FDE92}"/>
   </bookViews>
   <sheets>
     <sheet name="item" sheetId="14" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3729" uniqueCount="1096">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4208" uniqueCount="1101">
   <si>
     <t>##var</t>
   </si>
@@ -3332,7 +3332,22 @@
     <t>IID_チキ_シンクロ武器</t>
   </si>
   <si>
-    <t>bool</t>
+    <t>SLG.DamageType</t>
+  </si>
+  <si>
+    <t>MAG</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>DmgType</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>PN</t>
   </si>
 </sst>
 </file>
@@ -3798,11 +3813,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9E1DDF-1A81-4371-8A45-25A460B7866A}">
   <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -3824,7 +3842,7 @@
         <v>315</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>955</v>
+        <v>1098</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>8</v>
@@ -4014,8 +4032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B30DED3C-2AB9-487D-8777-DF16E4F441F6}">
   <dimension ref="A1:AF76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4040,7 +4058,7 @@
         <v>315</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>955</v>
+        <v>1098</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>8</v>
@@ -4234,7 +4252,9 @@
       <c r="F4" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H4" s="4">
         <v>12</v>
       </c>
@@ -4286,7 +4306,9 @@
       <c r="F5" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H5" s="4">
         <v>7</v>
       </c>
@@ -4338,7 +4360,9 @@
       <c r="F6" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H6" s="4">
         <v>20</v>
       </c>
@@ -4388,7 +4412,9 @@
       <c r="F7" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H7" s="4">
         <v>20</v>
       </c>
@@ -4438,7 +4464,9 @@
       <c r="F8" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H8" s="4">
         <v>13</v>
       </c>
@@ -4490,7 +4518,9 @@
       <c r="F9" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H9" s="4">
         <v>17</v>
       </c>
@@ -4540,7 +4570,9 @@
       <c r="F10" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H10" s="4">
         <v>0</v>
       </c>
@@ -4591,7 +4623,9 @@
       <c r="F11" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="G11" s="7"/>
+      <c r="G11" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H11" s="7">
         <v>10</v>
       </c>
@@ -4645,7 +4679,9 @@
       <c r="F12" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="G12" s="7"/>
+      <c r="G12" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H12" s="7">
         <v>6</v>
       </c>
@@ -4701,7 +4737,9 @@
       <c r="F13" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="G13" s="7"/>
+      <c r="G13" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H13" s="7">
         <v>6</v>
       </c>
@@ -4757,7 +4795,9 @@
       <c r="F14" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="G14" s="7"/>
+      <c r="G14" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H14" s="7">
         <v>6</v>
       </c>
@@ -4813,7 +4853,9 @@
       <c r="F15" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="G15" s="7"/>
+      <c r="G15" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H15" s="7">
         <v>6</v>
       </c>
@@ -4869,7 +4911,9 @@
       <c r="F16" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="G16" s="7"/>
+      <c r="G16" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H16" s="7">
         <v>10</v>
       </c>
@@ -4925,7 +4969,9 @@
       <c r="F17" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="G17" s="7"/>
+      <c r="G17" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H17" s="7">
         <v>5</v>
       </c>
@@ -4981,7 +5027,9 @@
       <c r="F18" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="G18" s="7"/>
+      <c r="G18" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H18" s="7">
         <v>6</v>
       </c>
@@ -5035,7 +5083,9 @@
       <c r="F19" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="G19" s="7"/>
+      <c r="G19" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H19" s="7">
         <v>15</v>
       </c>
@@ -5087,7 +5137,9 @@
       <c r="F20" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="G20" s="7"/>
+      <c r="G20" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H20" s="7">
         <v>7</v>
       </c>
@@ -5141,7 +5193,9 @@
       <c r="F21" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="G21" s="7"/>
+      <c r="G21" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H21" s="7">
         <v>17</v>
       </c>
@@ -5193,7 +5247,9 @@
       <c r="F22" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="G22" s="7"/>
+      <c r="G22" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H22" s="7">
         <v>17</v>
       </c>
@@ -5247,7 +5303,9 @@
       <c r="F23" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="G23" s="7"/>
+      <c r="G23" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H23" s="7">
         <v>0</v>
       </c>
@@ -5299,7 +5357,9 @@
       <c r="F24" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G24" s="4"/>
+      <c r="G24" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H24" s="4">
         <v>5</v>
       </c>
@@ -5354,7 +5414,9 @@
       <c r="F25" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G25" s="4"/>
+      <c r="G25" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H25" s="4">
         <v>5</v>
       </c>
@@ -5409,7 +5471,9 @@
       <c r="F26" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H26" s="4">
         <v>3</v>
       </c>
@@ -5464,7 +5528,9 @@
       <c r="F27" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G27" s="4"/>
+      <c r="G27" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H27" s="4">
         <v>3</v>
       </c>
@@ -5519,7 +5585,9 @@
       <c r="F28" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G28" s="4"/>
+      <c r="G28" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H28" s="4">
         <v>3</v>
       </c>
@@ -5574,7 +5642,9 @@
       <c r="F29" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G29" s="4"/>
+      <c r="G29" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H29" s="4">
         <v>3</v>
       </c>
@@ -5629,7 +5699,9 @@
       <c r="F30" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G30" s="4"/>
+      <c r="G30" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H30" s="4">
         <v>6</v>
       </c>
@@ -5684,7 +5756,9 @@
       <c r="F31" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G31" s="4"/>
+      <c r="G31" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H31" s="4">
         <v>6</v>
       </c>
@@ -5739,7 +5813,9 @@
       <c r="F32" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G32" s="4"/>
+      <c r="G32" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H32" s="4">
         <v>6</v>
       </c>
@@ -5794,7 +5870,9 @@
       <c r="F33" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G33" s="4"/>
+      <c r="G33" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H33" s="4">
         <v>6</v>
       </c>
@@ -5849,7 +5927,9 @@
       <c r="F34" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G34" s="4"/>
+      <c r="G34" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H34" s="4">
         <v>6</v>
       </c>
@@ -5904,7 +5984,9 @@
       <c r="F35" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G35" s="4"/>
+      <c r="G35" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H35" s="4">
         <v>10</v>
       </c>
@@ -5959,7 +6041,9 @@
       <c r="F36" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G36" s="4"/>
+      <c r="G36" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H36" s="4">
         <v>10</v>
       </c>
@@ -6014,7 +6098,9 @@
       <c r="F37" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G37" s="4"/>
+      <c r="G37" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H37" s="4">
         <v>20</v>
       </c>
@@ -6069,7 +6155,9 @@
       <c r="F38" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G38" s="4"/>
+      <c r="G38" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H38" s="4">
         <v>7</v>
       </c>
@@ -6121,7 +6209,9 @@
       <c r="F39" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G39" s="4"/>
+      <c r="G39" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H39" s="4">
         <v>11</v>
       </c>
@@ -6174,7 +6264,9 @@
       <c r="F40" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="G40" s="7"/>
+      <c r="G40" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H40" s="7">
         <v>11</v>
       </c>
@@ -6227,7 +6319,9 @@
       <c r="F41" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G41" s="4"/>
+      <c r="G41" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H41" s="4">
         <v>6</v>
       </c>
@@ -6280,7 +6374,9 @@
       <c r="F42" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="G42" s="7"/>
+      <c r="G42" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H42" s="7">
         <v>6</v>
       </c>
@@ -6333,7 +6429,9 @@
       <c r="F43" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G43" s="4"/>
+      <c r="G43" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H43" s="4">
         <v>0</v>
       </c>
@@ -6384,7 +6482,9 @@
       <c r="F44" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G44" s="4"/>
+      <c r="G44" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H44" s="4">
         <v>0</v>
       </c>
@@ -6435,7 +6535,9 @@
       <c r="F45" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G45" s="4"/>
+      <c r="G45" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H45" s="4">
         <v>0</v>
       </c>
@@ -6483,7 +6585,9 @@
       <c r="F46" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G46" s="4"/>
+      <c r="G46" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H46" s="4">
         <v>20</v>
       </c>
@@ -6536,7 +6640,9 @@
       <c r="F47" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G47" s="4"/>
+      <c r="G47" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H47" s="4">
         <v>20</v>
       </c>
@@ -6586,7 +6692,9 @@
       <c r="F48" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G48" s="4"/>
+      <c r="G48" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H48" s="4">
         <v>10</v>
       </c>
@@ -6639,7 +6747,9 @@
       <c r="F49" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="G49" s="7"/>
+      <c r="G49" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H49" s="7">
         <v>10</v>
       </c>
@@ -6693,7 +6803,9 @@
       <c r="F50" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G50" s="4"/>
+      <c r="G50" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H50" s="4">
         <v>10</v>
       </c>
@@ -6746,7 +6858,9 @@
       <c r="F51" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G51" s="4"/>
+      <c r="G51" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H51" s="4">
         <v>3</v>
       </c>
@@ -6799,7 +6913,9 @@
       <c r="F52" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G52" s="4"/>
+      <c r="G52" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H52" s="4">
         <v>5</v>
       </c>
@@ -6852,7 +6968,9 @@
       <c r="F53" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G53" s="4"/>
+      <c r="G53" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H53" s="4">
         <v>8</v>
       </c>
@@ -6905,7 +7023,9 @@
       <c r="F54" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G54" s="4"/>
+      <c r="G54" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H54" s="4">
         <v>13</v>
       </c>
@@ -6958,7 +7078,9 @@
       <c r="F55" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G55" s="4"/>
+      <c r="G55" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H55" s="4">
         <v>18</v>
       </c>
@@ -7008,7 +7130,9 @@
       <c r="F56" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G56" s="4"/>
+      <c r="G56" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H56" s="4">
         <v>22</v>
       </c>
@@ -7063,7 +7187,9 @@
       <c r="F57" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="G57" s="7"/>
+      <c r="G57" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H57" s="7">
         <v>22</v>
       </c>
@@ -7119,7 +7245,9 @@
       <c r="F58" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G58" s="4"/>
+      <c r="G58" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H58" s="4">
         <v>22</v>
       </c>
@@ -7174,7 +7302,9 @@
       <c r="F59" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G59" s="4"/>
+      <c r="G59" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H59" s="4">
         <v>14</v>
       </c>
@@ -7229,7 +7359,9 @@
       <c r="F60" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G60" s="4"/>
+      <c r="G60" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H60" s="4">
         <v>17</v>
       </c>
@@ -7284,7 +7416,9 @@
       <c r="F61" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G61" s="4"/>
+      <c r="G61" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H61" s="4">
         <v>27</v>
       </c>
@@ -7339,7 +7473,9 @@
       <c r="F62" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G62" s="4"/>
+      <c r="G62" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H62" s="4">
         <v>32</v>
       </c>
@@ -7394,7 +7530,9 @@
       <c r="F63" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G63" s="4"/>
+      <c r="G63" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H63" s="4">
         <v>35</v>
       </c>
@@ -7446,7 +7584,9 @@
       <c r="F64" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G64" s="4"/>
+      <c r="G64" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H64" s="4">
         <v>10</v>
       </c>
@@ -7501,7 +7641,9 @@
       <c r="F65" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G65" s="4"/>
+      <c r="G65" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H65" s="4">
         <v>10</v>
       </c>
@@ -7556,7 +7698,9 @@
       <c r="F66" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G66" s="4"/>
+      <c r="G66" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H66" s="4">
         <v>10</v>
       </c>
@@ -7611,7 +7755,9 @@
       <c r="F67" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G67" s="4"/>
+      <c r="G67" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H67" s="4">
         <v>10</v>
       </c>
@@ -7666,7 +7812,9 @@
       <c r="F68" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G68" s="4"/>
+      <c r="G68" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H68" s="4">
         <v>10</v>
       </c>
@@ -7721,7 +7869,9 @@
       <c r="F69" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="G69" s="7"/>
+      <c r="G69" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H69" s="7">
         <v>14</v>
       </c>
@@ -7777,7 +7927,9 @@
       <c r="F70" s="7" t="s">
         <v>878</v>
       </c>
-      <c r="G70" s="7"/>
+      <c r="G70" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H70" s="7">
         <v>10</v>
       </c>
@@ -7833,7 +7985,9 @@
       <c r="F71" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G71" s="4"/>
+      <c r="G71" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H71" s="4">
         <v>10</v>
       </c>
@@ -7888,7 +8042,9 @@
       <c r="F72" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G72" s="4"/>
+      <c r="G72" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H72" s="4">
         <v>2</v>
       </c>
@@ -7943,7 +8099,9 @@
       <c r="F73" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G73" s="4"/>
+      <c r="G73" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H73" s="4">
         <v>7</v>
       </c>
@@ -7998,7 +8156,9 @@
       <c r="F74" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G74" s="4"/>
+      <c r="G74" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H74" s="4">
         <v>13</v>
       </c>
@@ -8053,7 +8213,9 @@
       <c r="F75" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G75" s="4"/>
+      <c r="G75" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H75" s="4">
         <v>16</v>
       </c>
@@ -8108,7 +8270,9 @@
       <c r="F76" s="4" t="s">
         <v>878</v>
       </c>
-      <c r="G76" s="4"/>
+      <c r="G76" s="4" t="s">
+        <v>1100</v>
+      </c>
       <c r="H76" s="4">
         <v>0</v>
       </c>
@@ -8163,6 +8327,7 @@
   <cols>
     <col min="4" max="4" width="27.85546875" customWidth="1"/>
     <col min="5" max="5" width="33.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8186,7 +8351,7 @@
         <v>315</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>955</v>
+        <v>1098</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>8</v>
@@ -8380,7 +8545,9 @@
       <c r="F4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H4" s="14">
         <v>3</v>
       </c>
@@ -8430,7 +8597,9 @@
       <c r="F5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="14"/>
+      <c r="G5" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H5" s="14">
         <v>5</v>
       </c>
@@ -8480,7 +8649,9 @@
       <c r="F6" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="14"/>
+      <c r="G6" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H6" s="14">
         <v>9</v>
       </c>
@@ -8530,7 +8701,9 @@
       <c r="F7" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="14"/>
+      <c r="G7" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H7" s="14">
         <v>12</v>
       </c>
@@ -8580,7 +8753,9 @@
       <c r="F8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="14"/>
+      <c r="G8" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H8" s="14">
         <v>9</v>
       </c>
@@ -8632,7 +8807,9 @@
       <c r="F9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="14"/>
+      <c r="G9" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H9" s="14">
         <v>9</v>
       </c>
@@ -8682,8 +8859,8 @@
       <c r="F10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="14" t="b">
-        <v>1</v>
+      <c r="G10" s="14" t="s">
+        <v>1096</v>
       </c>
       <c r="H10" s="14">
         <v>13</v>
@@ -8734,7 +8911,9 @@
       <c r="F11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="14"/>
+      <c r="G11" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H11" s="14">
         <v>6</v>
       </c>
@@ -8784,7 +8963,9 @@
       <c r="F12" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="14"/>
+      <c r="G12" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H12" s="14">
         <v>8</v>
       </c>
@@ -8836,7 +9017,9 @@
       <c r="F13" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G13" s="14"/>
+      <c r="G13" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H13" s="14">
         <v>4</v>
       </c>
@@ -8888,7 +9071,9 @@
       <c r="F14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="14"/>
+      <c r="G14" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H14" s="14">
         <v>6</v>
       </c>
@@ -8943,7 +9128,9 @@
       <c r="F15" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="14"/>
+      <c r="G15" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H15" s="14">
         <v>10</v>
       </c>
@@ -8993,7 +9180,9 @@
       <c r="F16" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="14"/>
+      <c r="G16" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H16" s="14">
         <v>12</v>
       </c>
@@ -9043,7 +9232,9 @@
       <c r="F17" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="14"/>
+      <c r="G17" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H17" s="14">
         <v>15</v>
       </c>
@@ -9093,7 +9284,9 @@
       <c r="F18" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="14"/>
+      <c r="G18" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H18" s="14">
         <v>10</v>
       </c>
@@ -9145,7 +9338,9 @@
       <c r="F19" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="14"/>
+      <c r="G19" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H19" s="14">
         <v>18</v>
       </c>
@@ -9197,7 +9392,9 @@
       <c r="F20" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="14"/>
+      <c r="G20" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H20" s="14">
         <v>24</v>
       </c>
@@ -9249,7 +9446,9 @@
       <c r="F21" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="14"/>
+      <c r="G21" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H21" s="14">
         <v>32</v>
       </c>
@@ -9301,7 +9500,9 @@
       <c r="F22" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="14"/>
+      <c r="G22" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H22" s="14">
         <v>10</v>
       </c>
@@ -9353,7 +9554,9 @@
       <c r="F23" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="14"/>
+      <c r="G23" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H23" s="14">
         <v>7</v>
       </c>
@@ -9406,7 +9609,9 @@
       <c r="F24" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G24" s="18"/>
+      <c r="G24" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H24" s="18">
         <v>14</v>
       </c>
@@ -9464,7 +9669,9 @@
       <c r="F25" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="18"/>
+      <c r="G25" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H25" s="18">
         <v>18</v>
       </c>
@@ -9519,7 +9726,9 @@
       <c r="F26" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G26" s="14"/>
+      <c r="G26" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H26" s="14">
         <v>7</v>
       </c>
@@ -9574,7 +9783,9 @@
       <c r="F27" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G27" s="14"/>
+      <c r="G27" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H27" s="14">
         <v>12</v>
       </c>
@@ -9626,7 +9837,9 @@
       <c r="F28" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="14"/>
+      <c r="G28" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H28" s="14">
         <v>12</v>
       </c>
@@ -9681,7 +9894,9 @@
       <c r="F29" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="14"/>
+      <c r="G29" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H29" s="14">
         <v>18</v>
       </c>
@@ -9733,7 +9948,9 @@
       <c r="F30" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G30" s="14"/>
+      <c r="G30" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H30" s="14">
         <v>12</v>
       </c>
@@ -9788,7 +10005,9 @@
       <c r="F31" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G31" s="14"/>
+      <c r="G31" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H31" s="14">
         <v>12</v>
       </c>
@@ -9843,7 +10062,9 @@
       <c r="F32" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G32" s="14"/>
+      <c r="G32" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H32" s="14">
         <v>12</v>
       </c>
@@ -9895,7 +10116,9 @@
       <c r="F33" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G33" s="14"/>
+      <c r="G33" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H33" s="14">
         <v>15</v>
       </c>
@@ -9948,7 +10171,9 @@
       <c r="F34" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G34" s="14"/>
+      <c r="G34" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H34" s="14">
         <v>12</v>
       </c>
@@ -9998,7 +10223,9 @@
       <c r="F35" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="14"/>
+      <c r="G35" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H35" s="14">
         <v>9</v>
       </c>
@@ -10051,7 +10278,9 @@
       <c r="F36" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G36" s="14"/>
+      <c r="G36" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H36" s="14">
         <v>9</v>
       </c>
@@ -10101,7 +10330,9 @@
       <c r="F37" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G37" s="14"/>
+      <c r="G37" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H37" s="14">
         <v>10</v>
       </c>
@@ -10156,7 +10387,9 @@
       <c r="F38" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G38" s="14"/>
+      <c r="G38" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H38" s="14">
         <v>10</v>
       </c>
@@ -10208,7 +10441,9 @@
       <c r="F39" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G39" s="14"/>
+      <c r="G39" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H39" s="14">
         <v>14</v>
       </c>
@@ -10261,7 +10496,9 @@
       <c r="F40" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G40" s="14"/>
+      <c r="G40" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H40" s="14">
         <v>14</v>
       </c>
@@ -10311,8 +10548,8 @@
       <c r="F41" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G41" s="14" t="b">
-        <v>1</v>
+      <c r="G41" s="14" t="s">
+        <v>1096</v>
       </c>
       <c r="H41" s="14">
         <v>15</v>
@@ -10366,8 +10603,8 @@
       <c r="F42" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G42" s="14" t="b">
-        <v>1</v>
+      <c r="G42" s="14" t="s">
+        <v>1096</v>
       </c>
       <c r="H42" s="14">
         <v>15</v>
@@ -10418,7 +10655,9 @@
       <c r="F43" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G43" s="14"/>
+      <c r="G43" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H43" s="14">
         <v>8</v>
       </c>
@@ -10473,7 +10712,9 @@
       <c r="F44" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G44" s="14"/>
+      <c r="G44" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H44" s="14">
         <v>8</v>
       </c>
@@ -10528,7 +10769,9 @@
       <c r="F45" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G45" s="14"/>
+      <c r="G45" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H45" s="14">
         <v>8</v>
       </c>
@@ -10580,7 +10823,9 @@
       <c r="F46" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G46" s="14"/>
+      <c r="G46" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H46" s="14">
         <v>10</v>
       </c>
@@ -10635,7 +10880,9 @@
       <c r="F47" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G47" s="14"/>
+      <c r="G47" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H47" s="14">
         <v>10</v>
       </c>
@@ -10687,7 +10934,9 @@
       <c r="F48" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G48" s="14"/>
+      <c r="G48" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H48" s="14">
         <v>6</v>
       </c>
@@ -10742,7 +10991,9 @@
       <c r="F49" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G49" s="14"/>
+      <c r="G49" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H49" s="14">
         <v>6</v>
       </c>
@@ -10797,7 +11048,9 @@
       <c r="F50" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G50" s="14"/>
+      <c r="G50" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H50" s="14">
         <v>6</v>
       </c>
@@ -10852,7 +11105,9 @@
       <c r="F51" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G51" s="14"/>
+      <c r="G51" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H51" s="14">
         <v>6</v>
       </c>
@@ -10904,7 +11159,9 @@
       <c r="F52" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G52" s="14"/>
+      <c r="G52" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H52" s="14">
         <v>16</v>
       </c>
@@ -10957,7 +11214,9 @@
       <c r="F53" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G53" s="14"/>
+      <c r="G53" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H53" s="14">
         <v>16</v>
       </c>
@@ -11007,8 +11266,8 @@
       <c r="F54" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G54" s="14" t="b">
-        <v>1</v>
+      <c r="G54" s="14" t="s">
+        <v>1096</v>
       </c>
       <c r="H54" s="14">
         <v>8</v>
@@ -11064,8 +11323,8 @@
       <c r="F55" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G55" s="14" t="b">
-        <v>1</v>
+      <c r="G55" s="14" t="s">
+        <v>1096</v>
       </c>
       <c r="H55" s="14">
         <v>8</v>
@@ -11118,7 +11377,9 @@
       <c r="F56" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G56" s="14"/>
+      <c r="G56" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H56" s="14">
         <v>11</v>
       </c>
@@ -11173,7 +11434,9 @@
       <c r="F57" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G57" s="14"/>
+      <c r="G57" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H57" s="14">
         <v>11</v>
       </c>
@@ -11228,7 +11491,9 @@
       <c r="F58" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G58" s="14"/>
+      <c r="G58" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H58" s="14">
         <v>11</v>
       </c>
@@ -11280,7 +11545,9 @@
       <c r="F59" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G59" s="14"/>
+      <c r="G59" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H59" s="14">
         <v>8</v>
       </c>
@@ -11333,7 +11600,9 @@
       <c r="F60" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G60" s="14"/>
+      <c r="G60" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H60" s="14">
         <v>8</v>
       </c>
@@ -11383,7 +11652,9 @@
       <c r="F61" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G61" s="14"/>
+      <c r="G61" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H61" s="14">
         <v>10</v>
       </c>
@@ -11436,7 +11707,9 @@
       <c r="F62" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G62" s="14"/>
+      <c r="G62" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H62" s="14">
         <v>10</v>
       </c>
@@ -11486,7 +11759,9 @@
       <c r="F63" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G63" s="14"/>
+      <c r="G63" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H63" s="14">
         <v>16</v>
       </c>
@@ -11539,7 +11814,9 @@
       <c r="F64" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G64" s="14"/>
+      <c r="G64" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H64" s="14">
         <v>16</v>
       </c>
@@ -11589,7 +11866,9 @@
       <c r="F65" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G65" s="14"/>
+      <c r="G65" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H65" s="14">
         <v>7</v>
       </c>
@@ -11644,7 +11923,9 @@
       <c r="F66" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G66" s="14"/>
+      <c r="G66" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H66" s="14">
         <v>7</v>
       </c>
@@ -11696,8 +11977,8 @@
       <c r="F67" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G67" s="14" t="b">
-        <v>1</v>
+      <c r="G67" s="14" t="s">
+        <v>1096</v>
       </c>
       <c r="H67" s="14">
         <v>10</v>
@@ -11753,8 +12034,8 @@
       <c r="F68" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G68" s="14" t="b">
-        <v>1</v>
+      <c r="G68" s="14" t="s">
+        <v>1096</v>
       </c>
       <c r="H68" s="14">
         <v>10</v>
@@ -11807,7 +12088,9 @@
       <c r="F69" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G69" s="14"/>
+      <c r="G69" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H69" s="14">
         <v>12</v>
       </c>
@@ -11862,7 +12145,9 @@
       <c r="F70" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G70" s="14"/>
+      <c r="G70" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H70" s="14">
         <v>12</v>
       </c>
@@ -11917,7 +12202,9 @@
       <c r="F71" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G71" s="14"/>
+      <c r="G71" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H71" s="14">
         <v>8</v>
       </c>
@@ -11972,7 +12259,9 @@
       <c r="F72" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G72" s="14"/>
+      <c r="G72" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H72" s="14">
         <v>8</v>
       </c>
@@ -12027,7 +12316,9 @@
       <c r="F73" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G73" s="14"/>
+      <c r="G73" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H73" s="14">
         <v>15</v>
       </c>
@@ -12082,7 +12373,9 @@
       <c r="F74" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G74" s="14"/>
+      <c r="G74" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H74" s="14">
         <v>15</v>
       </c>
@@ -12137,7 +12430,9 @@
       <c r="F75" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G75" s="14"/>
+      <c r="G75" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H75" s="14">
         <v>0</v>
       </c>
@@ -12188,7 +12483,9 @@
       <c r="F76" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G76" s="14"/>
+      <c r="G76" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H76" s="14">
         <v>0</v>
       </c>
@@ -12239,7 +12536,9 @@
       <c r="F77" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G77" s="14"/>
+      <c r="G77" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H77" s="14">
         <v>0</v>
       </c>
@@ -12290,7 +12589,9 @@
       <c r="F78" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G78" s="14"/>
+      <c r="G78" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H78" s="14">
         <v>0</v>
       </c>
@@ -12341,7 +12642,9 @@
       <c r="F79" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G79" s="14"/>
+      <c r="G79" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H79" s="14">
         <v>0</v>
       </c>
@@ -12392,7 +12695,9 @@
       <c r="F80" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G80" s="14"/>
+      <c r="G80" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H80" s="14">
         <v>0</v>
       </c>
@@ -12443,7 +12748,9 @@
       <c r="F81" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G81" s="14"/>
+      <c r="G81" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H81" s="14">
         <v>0</v>
       </c>
@@ -12494,7 +12801,9 @@
       <c r="F82" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G82" s="14"/>
+      <c r="G82" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H82" s="14">
         <v>0</v>
       </c>
@@ -12545,7 +12854,9 @@
       <c r="F83" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G83" s="14"/>
+      <c r="G83" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H83" s="14">
         <v>0</v>
       </c>
@@ -12596,7 +12907,9 @@
       <c r="F84" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G84" s="14"/>
+      <c r="G84" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H84" s="14">
         <v>0</v>
       </c>
@@ -12647,7 +12960,9 @@
       <c r="F85" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G85" s="14"/>
+      <c r="G85" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H85" s="14">
         <v>0</v>
       </c>
@@ -12695,7 +13010,9 @@
       <c r="F86" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G86" s="14"/>
+      <c r="G86" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H86" s="14">
         <v>12</v>
       </c>
@@ -12750,7 +13067,9 @@
       <c r="F87" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G87" s="14"/>
+      <c r="G87" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H87" s="14">
         <v>12</v>
       </c>
@@ -12805,7 +13124,9 @@
       <c r="F88" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G88" s="14"/>
+      <c r="G88" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H88" s="14">
         <v>7</v>
       </c>
@@ -12860,7 +13181,9 @@
       <c r="F89" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G89" s="14"/>
+      <c r="G89" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H89" s="14">
         <v>10</v>
       </c>
@@ -12915,7 +13238,9 @@
       <c r="F90" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G90" s="14"/>
+      <c r="G90" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H90" s="14">
         <v>15</v>
       </c>
@@ -12970,7 +13295,9 @@
       <c r="F91" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G91" s="14"/>
+      <c r="G91" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H91" s="14">
         <v>18</v>
       </c>
@@ -13025,7 +13352,9 @@
       <c r="F92" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G92" s="14"/>
+      <c r="G92" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H92" s="14">
         <v>16</v>
       </c>
@@ -13078,8 +13407,8 @@
       <c r="F93" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G93" s="14" t="b">
-        <v>1</v>
+      <c r="G93" s="14" t="s">
+        <v>1096</v>
       </c>
       <c r="H93" s="14">
         <v>10</v>
@@ -13133,8 +13462,8 @@
       <c r="F94" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G94" s="14" t="b">
-        <v>1</v>
+      <c r="G94" s="14" t="s">
+        <v>1096</v>
       </c>
       <c r="H94" s="14">
         <v>10</v>
@@ -13188,8 +13517,8 @@
       <c r="F95" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G95" s="14" t="b">
-        <v>1</v>
+      <c r="G95" s="14" t="s">
+        <v>1096</v>
       </c>
       <c r="H95" s="14">
         <v>10</v>
@@ -13243,8 +13572,8 @@
       <c r="F96" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G96" s="14" t="b">
-        <v>1</v>
+      <c r="G96" s="14" t="s">
+        <v>1096</v>
       </c>
       <c r="H96" s="14">
         <v>2</v>
@@ -13295,7 +13624,9 @@
       <c r="F97" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G97" s="14"/>
+      <c r="G97" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H97" s="14">
         <v>13</v>
       </c>
@@ -13350,7 +13681,9 @@
       <c r="F98" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G98" s="14"/>
+      <c r="G98" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H98" s="14">
         <v>13</v>
       </c>
@@ -13405,7 +13738,9 @@
       <c r="F99" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G99" s="14"/>
+      <c r="G99" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H99" s="14">
         <v>10</v>
       </c>
@@ -13460,7 +13795,9 @@
       <c r="F100" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G100" s="14"/>
+      <c r="G100" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H100" s="14">
         <v>7</v>
       </c>
@@ -13515,7 +13852,9 @@
       <c r="F101" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G101" s="14"/>
+      <c r="G101" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H101" s="14">
         <v>4</v>
       </c>
@@ -13570,8 +13909,8 @@
       <c r="F102" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G102" s="14" t="b">
-        <v>1</v>
+      <c r="G102" s="14" t="s">
+        <v>1096</v>
       </c>
       <c r="H102" s="14">
         <v>17</v>
@@ -13625,8 +13964,8 @@
       <c r="F103" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G103" s="14" t="b">
-        <v>1</v>
+      <c r="G103" s="14" t="s">
+        <v>1096</v>
       </c>
       <c r="H103" s="14">
         <v>19</v>
@@ -13680,7 +14019,9 @@
       <c r="F104" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G104" s="14"/>
+      <c r="G104" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H104" s="14">
         <v>12</v>
       </c>
@@ -13735,7 +14076,9 @@
       <c r="F105" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G105" s="14"/>
+      <c r="G105" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H105" s="14">
         <v>8</v>
       </c>
@@ -13790,7 +14133,9 @@
       <c r="F106" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G106" s="14"/>
+      <c r="G106" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H106" s="14">
         <v>10</v>
       </c>
@@ -13845,8 +14190,8 @@
       <c r="F107" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G107" s="14" t="b">
-        <v>1</v>
+      <c r="G107" s="14" t="s">
+        <v>1096</v>
       </c>
       <c r="H107" s="14">
         <v>10</v>
@@ -13957,8 +14302,8 @@
       <c r="F109" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="G109" s="14" t="b">
-        <v>1</v>
+      <c r="G109" s="14" t="s">
+        <v>1096</v>
       </c>
       <c r="H109" s="14">
         <v>12</v>
@@ -13998,6 +14343,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14006,10 +14352,13 @@
   <dimension ref="A1:AF37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G1" sqref="G1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="19.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -14031,7 +14380,7 @@
         <v>315</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>955</v>
+        <v>1098</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>8</v>
@@ -14225,7 +14574,9 @@
       <c r="F4" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H4" s="4">
         <v>5</v>
       </c>
@@ -14275,7 +14626,9 @@
       <c r="F5" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H5" s="4">
         <v>7</v>
       </c>
@@ -14325,7 +14678,9 @@
       <c r="F6" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H6" s="4">
         <v>11</v>
       </c>
@@ -14375,7 +14730,9 @@
       <c r="F7" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H7" s="4">
         <v>14</v>
       </c>
@@ -14425,7 +14782,9 @@
       <c r="F8" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H8" s="4">
         <v>6</v>
       </c>
@@ -14475,7 +14834,9 @@
       <c r="F9" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H9" s="4">
         <v>8</v>
       </c>
@@ -14527,7 +14888,9 @@
       <c r="F10" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H10" s="4">
         <v>7</v>
       </c>
@@ -14577,8 +14940,8 @@
       <c r="F11" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G11" s="4" t="b">
-        <v>1</v>
+      <c r="G11" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H11" s="4">
         <v>10</v>
@@ -14629,7 +14992,9 @@
       <c r="F12" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H12" s="4">
         <v>12</v>
       </c>
@@ -14679,7 +15044,9 @@
       <c r="F13" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H13" s="4">
         <v>5</v>
       </c>
@@ -14731,7 +15098,9 @@
       <c r="F14" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H14" s="4">
         <v>17</v>
       </c>
@@ -14781,7 +15150,9 @@
       <c r="F15" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H15" s="4">
         <v>14</v>
       </c>
@@ -14833,7 +15204,9 @@
       <c r="F16" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H16" s="4">
         <v>22</v>
       </c>
@@ -14885,7 +15258,9 @@
       <c r="F17" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H17" s="4">
         <v>28</v>
       </c>
@@ -14937,7 +15312,9 @@
       <c r="F18" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H18" s="4">
         <v>34</v>
       </c>
@@ -14989,7 +15366,9 @@
       <c r="F19" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H19" s="4">
         <v>13</v>
       </c>
@@ -15039,7 +15418,9 @@
       <c r="F20" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="G20" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H20" s="4">
         <v>12</v>
       </c>
@@ -15091,7 +15472,9 @@
       <c r="F21" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G21" s="4"/>
+      <c r="G21" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H21" s="4">
         <v>9</v>
       </c>
@@ -15141,7 +15524,9 @@
       <c r="F22" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H22" s="4">
         <v>10</v>
       </c>
@@ -15196,7 +15581,9 @@
       <c r="F23" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="G23" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H23" s="4">
         <v>10</v>
       </c>
@@ -15248,7 +15635,9 @@
       <c r="F24" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G24" s="4"/>
+      <c r="G24" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H24" s="4">
         <v>7</v>
       </c>
@@ -15303,7 +15692,9 @@
       <c r="F25" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G25" s="4"/>
+      <c r="G25" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H25" s="4">
         <v>7</v>
       </c>
@@ -15355,7 +15746,9 @@
       <c r="F26" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H26" s="4">
         <v>7</v>
       </c>
@@ -15410,7 +15803,9 @@
       <c r="F27" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G27" s="4"/>
+      <c r="G27" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H27" s="4">
         <v>7</v>
       </c>
@@ -15465,7 +15860,9 @@
       <c r="F28" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G28" s="4"/>
+      <c r="G28" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H28" s="4">
         <v>7</v>
       </c>
@@ -15517,7 +15914,9 @@
       <c r="F29" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G29" s="4"/>
+      <c r="G29" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H29" s="4">
         <v>11</v>
       </c>
@@ -15572,7 +15971,9 @@
       <c r="F30" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G30" s="4"/>
+      <c r="G30" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H30" s="4">
         <v>11</v>
       </c>
@@ -15624,7 +16025,9 @@
       <c r="F31" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G31" s="4"/>
+      <c r="G31" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H31" s="4">
         <v>14</v>
       </c>
@@ -15676,7 +16079,9 @@
       <c r="F32" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G32" s="4"/>
+      <c r="G32" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H32" s="4">
         <v>13</v>
       </c>
@@ -15728,7 +16133,9 @@
       <c r="F33" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G33" s="4"/>
+      <c r="G33" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H33" s="4">
         <v>14</v>
       </c>
@@ -15783,7 +16190,9 @@
       <c r="F34" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G34" s="4"/>
+      <c r="G34" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H34" s="4">
         <v>14</v>
       </c>
@@ -15838,7 +16247,9 @@
       <c r="F35" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G35" s="4"/>
+      <c r="G35" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H35" s="4">
         <v>9</v>
       </c>
@@ -15893,7 +16304,9 @@
       <c r="F36" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G36" s="4"/>
+      <c r="G36" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H36" s="4">
         <v>9</v>
       </c>
@@ -15948,7 +16361,9 @@
       <c r="F37" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G37" s="4"/>
+      <c r="G37" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H37" s="4">
         <v>11</v>
       </c>
@@ -15997,7 +16412,7 @@
   <dimension ref="A1:AF63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G1" sqref="G1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16022,7 +16437,7 @@
         <v>315</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>955</v>
+        <v>1098</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>8</v>
@@ -16216,7 +16631,9 @@
       <c r="F4" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H4" s="4">
         <v>6</v>
       </c>
@@ -16266,7 +16683,9 @@
       <c r="F5" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H5" s="4">
         <v>9</v>
       </c>
@@ -16316,7 +16735,9 @@
       <c r="F6" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H6" s="4">
         <v>13</v>
       </c>
@@ -16366,7 +16787,9 @@
       <c r="F7" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H7" s="4">
         <v>16</v>
       </c>
@@ -16416,7 +16839,9 @@
       <c r="F8" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H8" s="4">
         <v>7</v>
       </c>
@@ -16466,7 +16891,9 @@
       <c r="F9" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H9" s="4">
         <v>9</v>
       </c>
@@ -16518,7 +16945,9 @@
       <c r="F10" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H10" s="4">
         <v>8</v>
       </c>
@@ -16570,7 +16999,9 @@
       <c r="F11" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H11" s="4">
         <v>11</v>
       </c>
@@ -16620,7 +17051,9 @@
       <c r="F12" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H12" s="4">
         <v>14</v>
       </c>
@@ -16670,7 +17103,9 @@
       <c r="F13" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H13" s="4">
         <v>6</v>
       </c>
@@ -16722,7 +17157,9 @@
       <c r="F14" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H14" s="4">
         <v>19</v>
       </c>
@@ -16772,7 +17209,9 @@
       <c r="F15" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H15" s="4">
         <v>18</v>
       </c>
@@ -16824,7 +17263,9 @@
       <c r="F16" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H16" s="4">
         <v>26</v>
       </c>
@@ -16876,7 +17317,9 @@
       <c r="F17" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H17" s="4">
         <v>32</v>
       </c>
@@ -16928,8 +17371,8 @@
       <c r="F18" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G18" s="4" t="b">
-        <v>1</v>
+      <c r="G18" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H18" s="4">
         <v>20</v>
@@ -16982,7 +17425,9 @@
       <c r="F19" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H19" s="4">
         <v>38</v>
       </c>
@@ -17034,7 +17479,9 @@
       <c r="F20" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="G20" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H20" s="4">
         <v>10</v>
       </c>
@@ -17087,7 +17534,9 @@
       <c r="F21" s="7" t="s">
         <v>414</v>
       </c>
-      <c r="G21" s="7"/>
+      <c r="G21" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H21" s="7">
         <v>10</v>
       </c>
@@ -17138,7 +17587,9 @@
       <c r="F22" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H22" s="4">
         <v>14</v>
       </c>
@@ -17190,7 +17641,9 @@
       <c r="F23" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="G23" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H23" s="4">
         <v>11</v>
       </c>
@@ -17240,7 +17693,9 @@
       <c r="F24" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G24" s="4"/>
+      <c r="G24" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H24" s="4">
         <v>11</v>
       </c>
@@ -17293,7 +17748,9 @@
       <c r="F25" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G25" s="4"/>
+      <c r="G25" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H25" s="4">
         <v>11</v>
       </c>
@@ -17346,7 +17803,9 @@
       <c r="F26" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H26" s="4">
         <v>11</v>
       </c>
@@ -17399,7 +17858,9 @@
       <c r="F27" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G27" s="4"/>
+      <c r="G27" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H27" s="4">
         <v>11</v>
       </c>
@@ -17449,7 +17910,9 @@
       <c r="F28" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G28" s="4"/>
+      <c r="G28" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H28" s="4">
         <v>18</v>
       </c>
@@ -17504,7 +17967,9 @@
       <c r="F29" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G29" s="4"/>
+      <c r="G29" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H29" s="4">
         <v>18</v>
       </c>
@@ -17556,7 +18021,9 @@
       <c r="F30" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G30" s="4"/>
+      <c r="G30" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H30" s="4">
         <v>21</v>
       </c>
@@ -17609,7 +18076,9 @@
       <c r="F31" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G31" s="4"/>
+      <c r="G31" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H31" s="4">
         <v>21</v>
       </c>
@@ -17659,7 +18128,9 @@
       <c r="F32" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G32" s="4"/>
+      <c r="G32" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H32" s="4">
         <v>24</v>
       </c>
@@ -17711,7 +18182,9 @@
       <c r="F33" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G33" s="4"/>
+      <c r="G33" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H33" s="4">
         <v>24</v>
       </c>
@@ -17766,7 +18239,9 @@
       <c r="F34" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G34" s="4"/>
+      <c r="G34" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H34" s="4">
         <v>24</v>
       </c>
@@ -17818,7 +18293,9 @@
       <c r="F35" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G35" s="4"/>
+      <c r="G35" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H35" s="4">
         <v>10</v>
       </c>
@@ -17873,7 +18350,9 @@
       <c r="F36" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G36" s="4"/>
+      <c r="G36" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H36" s="4">
         <v>10</v>
       </c>
@@ -17928,7 +18407,9 @@
       <c r="F37" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G37" s="4"/>
+      <c r="G37" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H37" s="4">
         <v>10</v>
       </c>
@@ -17983,7 +18464,9 @@
       <c r="F38" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G38" s="4"/>
+      <c r="G38" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H38" s="4">
         <v>5</v>
       </c>
@@ -18038,7 +18521,9 @@
       <c r="F39" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G39" s="4"/>
+      <c r="G39" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H39" s="4">
         <v>5</v>
       </c>
@@ -18093,7 +18578,9 @@
       <c r="F40" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G40" s="4"/>
+      <c r="G40" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H40" s="4">
         <v>8</v>
       </c>
@@ -18148,7 +18635,9 @@
       <c r="F41" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G41" s="4"/>
+      <c r="G41" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H41" s="4">
         <v>8</v>
       </c>
@@ -18203,7 +18692,9 @@
       <c r="F42" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G42" s="4"/>
+      <c r="G42" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H42" s="4">
         <v>13</v>
       </c>
@@ -18258,7 +18749,9 @@
       <c r="F43" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G43" s="4"/>
+      <c r="G43" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H43" s="4">
         <v>16</v>
       </c>
@@ -18310,7 +18803,9 @@
       <c r="F44" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G44" s="4"/>
+      <c r="G44" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H44" s="4">
         <v>22</v>
       </c>
@@ -18365,7 +18860,9 @@
       <c r="F45" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G45" s="4"/>
+      <c r="G45" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H45" s="4">
         <v>22</v>
       </c>
@@ -18420,7 +18917,9 @@
       <c r="F46" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G46" s="4"/>
+      <c r="G46" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H46" s="4">
         <v>13</v>
       </c>
@@ -18475,7 +18974,9 @@
       <c r="F47" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G47" s="4"/>
+      <c r="G47" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H47" s="4">
         <v>13</v>
       </c>
@@ -18530,7 +19031,9 @@
       <c r="F48" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G48" s="4"/>
+      <c r="G48" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H48" s="4">
         <v>16</v>
       </c>
@@ -18585,7 +19088,9 @@
       <c r="F49" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G49" s="4"/>
+      <c r="G49" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H49" s="4">
         <v>16</v>
       </c>
@@ -18640,7 +19145,9 @@
       <c r="F50" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G50" s="4"/>
+      <c r="G50" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H50" s="4">
         <v>19</v>
       </c>
@@ -18695,7 +19202,9 @@
       <c r="F51" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G51" s="4"/>
+      <c r="G51" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H51" s="4">
         <v>19</v>
       </c>
@@ -18748,7 +19257,9 @@
       <c r="F52" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G52" s="4"/>
+      <c r="G52" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H52" s="4">
         <v>14</v>
       </c>
@@ -18801,7 +19312,9 @@
       <c r="F53" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G53" s="4"/>
+      <c r="G53" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H53" s="4">
         <v>14</v>
       </c>
@@ -18854,7 +19367,9 @@
       <c r="F54" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G54" s="4"/>
+      <c r="G54" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H54" s="4">
         <v>12</v>
       </c>
@@ -18907,7 +19422,9 @@
       <c r="F55" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G55" s="4"/>
+      <c r="G55" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H55" s="4">
         <v>7</v>
       </c>
@@ -18958,7 +19475,9 @@
       <c r="F56" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G56" s="4"/>
+      <c r="G56" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H56" s="4">
         <v>19</v>
       </c>
@@ -19013,7 +19532,9 @@
       <c r="F57" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G57" s="4"/>
+      <c r="G57" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H57" s="4">
         <v>19</v>
       </c>
@@ -19068,7 +19589,9 @@
       <c r="F58" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G58" s="4"/>
+      <c r="G58" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H58" s="4">
         <v>16</v>
       </c>
@@ -19123,7 +19646,9 @@
       <c r="F59" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G59" s="4"/>
+      <c r="G59" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H59" s="4">
         <v>13</v>
       </c>
@@ -19178,7 +19703,9 @@
       <c r="F60" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G60" s="4"/>
+      <c r="G60" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H60" s="4">
         <v>11</v>
       </c>
@@ -19233,7 +19760,9 @@
       <c r="F61" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G61" s="4"/>
+      <c r="G61" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H61" s="4">
         <v>11</v>
       </c>
@@ -19286,7 +19815,9 @@
       <c r="F62" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G62" s="4"/>
+      <c r="G62" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H62" s="4">
         <v>11</v>
       </c>
@@ -19339,7 +19870,9 @@
       <c r="F63" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G63" s="4"/>
+      <c r="G63" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H63" s="4">
         <v>14</v>
       </c>
@@ -19387,11 +19920,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{087C5471-9980-4E2C-AF4E-A3302BBEB6A8}">
   <dimension ref="A1:AF27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -19413,7 +19949,7 @@
         <v>315</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>955</v>
+        <v>1098</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>8</v>
@@ -19607,7 +20143,9 @@
       <c r="F4" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H4" s="4">
         <v>3</v>
       </c>
@@ -19659,7 +20197,9 @@
       <c r="F5" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H5" s="4">
         <v>6</v>
       </c>
@@ -19711,7 +20251,9 @@
       <c r="F6" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H6" s="4">
         <v>10</v>
       </c>
@@ -19763,7 +20305,9 @@
       <c r="F7" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H7" s="4">
         <v>13</v>
       </c>
@@ -19815,7 +20359,9 @@
       <c r="F8" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H8" s="4">
         <v>7</v>
       </c>
@@ -19867,7 +20413,9 @@
       <c r="F9" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H9" s="4">
         <v>7</v>
       </c>
@@ -19919,8 +20467,8 @@
       <c r="F10" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="G10" s="4" t="b">
-        <v>1</v>
+      <c r="G10" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H10" s="4">
         <v>19</v>
@@ -19973,7 +20521,9 @@
       <c r="F11" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H11" s="4">
         <v>4</v>
       </c>
@@ -20025,7 +20575,9 @@
       <c r="F12" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H12" s="4">
         <v>16</v>
       </c>
@@ -20077,7 +20629,9 @@
       <c r="F13" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H13" s="4">
         <v>8</v>
       </c>
@@ -20127,7 +20681,9 @@
       <c r="F14" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H14" s="4">
         <v>6</v>
       </c>
@@ -20179,7 +20735,9 @@
       <c r="F15" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H15" s="4">
         <v>17</v>
       </c>
@@ -20234,7 +20792,9 @@
       <c r="F16" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H16" s="4">
         <v>17</v>
       </c>
@@ -20286,7 +20846,9 @@
       <c r="F17" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="G17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H17" s="4">
         <v>9</v>
       </c>
@@ -20341,7 +20903,9 @@
       <c r="F18" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H18" s="4">
         <v>7</v>
       </c>
@@ -20396,7 +20960,9 @@
       <c r="F19" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="G19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H19" s="4">
         <v>9</v>
       </c>
@@ -20448,7 +21014,9 @@
       <c r="F20" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="G20" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H20" s="4">
         <v>16</v>
       </c>
@@ -20503,7 +21071,9 @@
       <c r="F21" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="G21" s="4"/>
+      <c r="G21" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H21" s="4">
         <v>16</v>
       </c>
@@ -20555,7 +21125,9 @@
       <c r="F22" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H22" s="4">
         <v>13</v>
       </c>
@@ -20610,7 +21182,9 @@
       <c r="F23" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="G23" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H23" s="4">
         <v>0</v>
       </c>
@@ -20658,7 +21232,9 @@
       <c r="F24" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="G24" s="4"/>
+      <c r="G24" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H24" s="4">
         <v>13</v>
       </c>
@@ -20713,7 +21289,9 @@
       <c r="F25" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="G25" s="4"/>
+      <c r="G25" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H25" s="4">
         <v>13</v>
       </c>
@@ -20768,7 +21346,9 @@
       <c r="F26" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="G26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H26" s="4">
         <v>9</v>
       </c>
@@ -20823,7 +21403,9 @@
       <c r="F27" s="4" t="s">
         <v>549</v>
       </c>
-      <c r="G27" s="4"/>
+      <c r="G27" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H27" s="4">
         <v>11</v>
       </c>
@@ -20871,8 +21453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBF8FB52-61A7-4719-A91F-D53551F22B46}">
   <dimension ref="A1:AF77"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20897,7 +21479,7 @@
         <v>315</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>955</v>
+        <v>1098</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>8</v>
@@ -21091,7 +21673,9 @@
       <c r="F4" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H4" s="4">
         <v>7</v>
       </c>
@@ -21143,7 +21727,9 @@
       <c r="F5" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H5" s="4">
         <v>5</v>
       </c>
@@ -21195,7 +21781,9 @@
       <c r="F6" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H6" s="4">
         <v>5</v>
       </c>
@@ -21247,7 +21835,9 @@
       <c r="F7" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H7" s="4">
         <v>4</v>
       </c>
@@ -21299,7 +21889,9 @@
       <c r="F8" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H8" s="4">
         <v>13</v>
       </c>
@@ -21351,7 +21943,9 @@
       <c r="F9" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H9" s="4">
         <v>11</v>
       </c>
@@ -21403,7 +21997,9 @@
       <c r="F10" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H10" s="4">
         <v>11</v>
       </c>
@@ -21455,7 +22051,9 @@
       <c r="F11" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H11" s="4">
         <v>7</v>
       </c>
@@ -21507,7 +22105,9 @@
       <c r="F12" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H12" s="4">
         <v>16</v>
       </c>
@@ -21559,7 +22159,9 @@
       <c r="F13" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H13" s="4">
         <v>18</v>
       </c>
@@ -21614,7 +22216,9 @@
       <c r="F14" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H14" s="4">
         <v>18</v>
       </c>
@@ -21666,7 +22270,9 @@
       <c r="F15" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H15" s="4">
         <v>10</v>
       </c>
@@ -21721,7 +22327,9 @@
       <c r="F16" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H16" s="4">
         <v>10</v>
       </c>
@@ -21773,7 +22381,9 @@
       <c r="F17" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H17" s="4">
         <v>5</v>
       </c>
@@ -21825,7 +22435,9 @@
       <c r="F18" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H18" s="4">
         <v>13</v>
       </c>
@@ -21878,7 +22490,9 @@
       <c r="F19" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H19" s="4">
         <v>10</v>
       </c>
@@ -21928,7 +22542,9 @@
       <c r="F20" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="G20" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H20" s="4">
         <v>14</v>
       </c>
@@ -21981,7 +22597,9 @@
       <c r="F21" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G21" s="4"/>
+      <c r="G21" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H21" s="4">
         <v>14</v>
       </c>
@@ -22031,7 +22649,9 @@
       <c r="F22" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H22" s="4">
         <v>8</v>
       </c>
@@ -22081,7 +22701,9 @@
       <c r="F23" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="G23" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H23" s="4">
         <v>6</v>
       </c>
@@ -22136,7 +22758,9 @@
       <c r="F24" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G24" s="4"/>
+      <c r="G24" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H24" s="4">
         <v>6</v>
       </c>
@@ -22188,7 +22812,9 @@
       <c r="F25" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G25" s="4"/>
+      <c r="G25" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H25" s="4">
         <v>15</v>
       </c>
@@ -22241,7 +22867,9 @@
       <c r="F26" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H26" s="4">
         <v>15</v>
       </c>
@@ -22291,7 +22919,9 @@
       <c r="F27" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G27" s="4"/>
+      <c r="G27" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H27" s="4">
         <v>7</v>
       </c>
@@ -22344,7 +22974,9 @@
       <c r="F28" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G28" s="4"/>
+      <c r="G28" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H28" s="4">
         <v>7</v>
       </c>
@@ -22394,7 +23026,9 @@
       <c r="F29" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G29" s="4"/>
+      <c r="G29" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H29" s="4">
         <v>9</v>
       </c>
@@ -22449,7 +23083,9 @@
       <c r="F30" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G30" s="4"/>
+      <c r="G30" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H30" s="4">
         <v>9</v>
       </c>
@@ -22501,7 +23137,9 @@
       <c r="F31" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G31" s="4"/>
+      <c r="G31" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H31" s="4">
         <v>11</v>
       </c>
@@ -22556,7 +23194,9 @@
       <c r="F32" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G32" s="4"/>
+      <c r="G32" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H32" s="4">
         <v>11</v>
       </c>
@@ -22611,7 +23251,9 @@
       <c r="F33" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G33" s="4"/>
+      <c r="G33" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H33" s="4">
         <v>0</v>
       </c>
@@ -22659,7 +23301,9 @@
       <c r="F34" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G34" s="4"/>
+      <c r="G34" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H34" s="4">
         <v>13</v>
       </c>
@@ -22714,7 +23358,9 @@
       <c r="F35" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G35" s="4"/>
+      <c r="G35" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H35" s="4">
         <v>13</v>
       </c>
@@ -22769,7 +23415,9 @@
       <c r="F36" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G36" s="4"/>
+      <c r="G36" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H36" s="4">
         <v>2</v>
       </c>
@@ -22824,7 +23472,9 @@
       <c r="F37" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G37" s="4"/>
+      <c r="G37" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H37" s="4">
         <v>5</v>
       </c>
@@ -22879,7 +23529,9 @@
       <c r="F38" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G38" s="4"/>
+      <c r="G38" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H38" s="4">
         <v>9</v>
       </c>
@@ -22934,7 +23586,9 @@
       <c r="F39" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G39" s="4"/>
+      <c r="G39" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H39" s="4">
         <v>16</v>
       </c>
@@ -22986,7 +23640,9 @@
       <c r="F40" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G40" s="4"/>
+      <c r="G40" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H40" s="4">
         <v>18</v>
       </c>
@@ -23041,7 +23697,9 @@
       <c r="F41" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G41" s="4"/>
+      <c r="G41" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H41" s="4">
         <v>18</v>
       </c>
@@ -23096,7 +23754,9 @@
       <c r="F42" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G42" s="4"/>
+      <c r="G42" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H42" s="4">
         <v>4</v>
       </c>
@@ -23151,7 +23811,9 @@
       <c r="F43" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G43" s="4"/>
+      <c r="G43" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H43" s="4">
         <v>10</v>
       </c>
@@ -23206,7 +23868,9 @@
       <c r="F44" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G44" s="4"/>
+      <c r="G44" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H44" s="4">
         <v>14</v>
       </c>
@@ -23261,7 +23925,9 @@
       <c r="F45" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G45" s="4"/>
+      <c r="G45" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H45" s="4">
         <v>21</v>
       </c>
@@ -23316,7 +23982,9 @@
       <c r="F46" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G46" s="4"/>
+      <c r="G46" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H46" s="4">
         <v>24</v>
       </c>
@@ -23371,7 +24039,9 @@
       <c r="F47" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G47" s="4"/>
+      <c r="G47" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H47" s="4">
         <v>0</v>
       </c>
@@ -23424,7 +24094,9 @@
       <c r="F48" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G48" s="4"/>
+      <c r="G48" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H48" s="4">
         <v>0</v>
       </c>
@@ -23477,7 +24149,9 @@
       <c r="F49" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G49" s="4"/>
+      <c r="G49" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H49" s="4">
         <v>0</v>
       </c>
@@ -23530,7 +24204,9 @@
       <c r="F50" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G50" s="4"/>
+      <c r="G50" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H50" s="4">
         <v>0</v>
       </c>
@@ -23583,7 +24259,9 @@
       <c r="F51" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G51" s="4"/>
+      <c r="G51" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H51" s="4">
         <v>0</v>
       </c>
@@ -23633,7 +24311,9 @@
       <c r="F52" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G52" s="4"/>
+      <c r="G52" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H52" s="4">
         <v>2</v>
       </c>
@@ -23688,7 +24368,9 @@
       <c r="F53" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G53" s="4"/>
+      <c r="G53" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H53" s="4">
         <v>2</v>
       </c>
@@ -23743,7 +24425,9 @@
       <c r="F54" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G54" s="4"/>
+      <c r="G54" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H54" s="4">
         <v>2</v>
       </c>
@@ -23798,7 +24482,9 @@
       <c r="F55" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G55" s="4"/>
+      <c r="G55" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H55" s="4">
         <v>1</v>
       </c>
@@ -23853,7 +24539,9 @@
       <c r="F56" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G56" s="4"/>
+      <c r="G56" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H56" s="4">
         <v>10</v>
       </c>
@@ -23905,7 +24593,9 @@
       <c r="F57" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G57" s="4"/>
+      <c r="G57" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H57" s="4">
         <v>16</v>
       </c>
@@ -23960,7 +24650,9 @@
       <c r="F58" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G58" s="4"/>
+      <c r="G58" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H58" s="4">
         <v>16</v>
       </c>
@@ -24015,7 +24707,9 @@
       <c r="F59" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G59" s="4"/>
+      <c r="G59" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H59" s="4">
         <v>13</v>
       </c>
@@ -24070,7 +24764,9 @@
       <c r="F60" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G60" s="4"/>
+      <c r="G60" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H60" s="4">
         <v>10</v>
       </c>
@@ -24125,7 +24821,9 @@
       <c r="F61" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G61" s="4"/>
+      <c r="G61" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H61" s="4">
         <v>6</v>
       </c>
@@ -24180,7 +24878,9 @@
       <c r="F62" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G62" s="4"/>
+      <c r="G62" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H62" s="4">
         <v>4</v>
       </c>
@@ -24235,7 +24935,9 @@
       <c r="F63" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G63" s="4"/>
+      <c r="G63" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H63" s="4">
         <v>4</v>
       </c>
@@ -24288,7 +24990,9 @@
       <c r="F64" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G64" s="4"/>
+      <c r="G64" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H64" s="4">
         <v>4</v>
       </c>
@@ -24341,7 +25045,9 @@
       <c r="F65" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G65" s="4"/>
+      <c r="G65" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H65" s="4">
         <v>1</v>
       </c>
@@ -24396,7 +25102,9 @@
       <c r="F66" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G66" s="4"/>
+      <c r="G66" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H66" s="4">
         <v>1</v>
       </c>
@@ -24449,7 +25157,9 @@
       <c r="F67" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G67" s="4"/>
+      <c r="G67" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H67" s="4">
         <v>1</v>
       </c>
@@ -24500,7 +25210,9 @@
       <c r="F68" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G68" s="4"/>
+      <c r="G68" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H68" s="4">
         <v>3</v>
       </c>
@@ -24555,7 +25267,9 @@
       <c r="F69" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G69" s="4"/>
+      <c r="G69" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H69" s="4">
         <v>3</v>
       </c>
@@ -24610,7 +25324,9 @@
       <c r="F70" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G70" s="4"/>
+      <c r="G70" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H70" s="4">
         <v>1</v>
       </c>
@@ -24662,7 +25378,9 @@
       <c r="F71" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G71" s="4"/>
+      <c r="G71" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H71" s="4">
         <v>14</v>
       </c>
@@ -24715,7 +25433,9 @@
       <c r="F72" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G72" s="4"/>
+      <c r="G72" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H72" s="4">
         <v>14</v>
       </c>
@@ -24768,7 +25488,9 @@
       <c r="F73" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G73" s="4"/>
+      <c r="G73" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H73" s="4">
         <v>11</v>
       </c>
@@ -24821,7 +25543,9 @@
       <c r="F74" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G74" s="4"/>
+      <c r="G74" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H74" s="4">
         <v>8</v>
       </c>
@@ -24874,7 +25598,9 @@
       <c r="F75" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G75" s="4"/>
+      <c r="G75" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H75" s="4">
         <v>8</v>
       </c>
@@ -24927,7 +25653,9 @@
       <c r="F76" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G76" s="4"/>
+      <c r="G76" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H76" s="4">
         <v>6</v>
       </c>
@@ -24982,7 +25710,9 @@
       <c r="F77" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G77" s="4"/>
+      <c r="G77" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H77" s="4">
         <v>17</v>
       </c>
@@ -25028,11 +25758,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CACC981E-6EB4-41BB-A47E-1EA2AD89A58C}">
   <dimension ref="A1:AF58"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4:G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -25054,7 +25787,7 @@
         <v>315</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>955</v>
+        <v>1098</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>8</v>
@@ -25248,8 +25981,8 @@
       <c r="F4" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G4" s="4" t="b">
-        <v>1</v>
+      <c r="G4" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H4" s="4">
         <v>6</v>
@@ -25305,8 +26038,8 @@
       <c r="F5" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G5" s="4" t="b">
-        <v>1</v>
+      <c r="G5" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H5" s="4">
         <v>6</v>
@@ -25359,8 +26092,8 @@
       <c r="F6" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G6" s="4" t="b">
-        <v>1</v>
+      <c r="G6" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H6" s="4">
         <v>15</v>
@@ -25414,8 +26147,8 @@
       <c r="F7" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G7" s="4" t="b">
-        <v>1</v>
+      <c r="G7" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H7" s="4">
         <v>15</v>
@@ -25466,8 +26199,8 @@
       <c r="F8" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G8" s="4" t="b">
-        <v>1</v>
+      <c r="G8" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H8" s="4">
         <v>7</v>
@@ -25521,8 +26254,8 @@
       <c r="F9" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G9" s="4" t="b">
-        <v>1</v>
+      <c r="G9" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H9" s="4">
         <v>7</v>
@@ -25573,8 +26306,8 @@
       <c r="F10" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G10" s="4" t="b">
-        <v>1</v>
+      <c r="G10" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H10" s="4">
         <v>9</v>
@@ -25630,8 +26363,8 @@
       <c r="F11" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G11" s="4" t="b">
-        <v>1</v>
+      <c r="G11" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H11" s="4">
         <v>9</v>
@@ -25684,8 +26417,8 @@
       <c r="F12" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G12" s="4" t="b">
-        <v>1</v>
+      <c r="G12" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H12" s="4">
         <v>11</v>
@@ -25741,8 +26474,8 @@
       <c r="F13" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G13" s="4" t="b">
-        <v>1</v>
+      <c r="G13" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H13" s="4">
         <v>11</v>
@@ -25798,8 +26531,8 @@
       <c r="F14" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G14" s="4" t="b">
-        <v>1</v>
+      <c r="G14" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H14" s="4">
         <v>0</v>
@@ -25848,8 +26581,8 @@
       <c r="F15" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G15" s="4" t="b">
-        <v>1</v>
+      <c r="G15" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H15" s="4">
         <v>13</v>
@@ -25905,8 +26638,8 @@
       <c r="F16" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G16" s="4" t="b">
-        <v>1</v>
+      <c r="G16" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H16" s="4">
         <v>13</v>
@@ -25962,8 +26695,8 @@
       <c r="F17" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G17" s="4" t="b">
-        <v>1</v>
+      <c r="G17" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H17" s="4">
         <v>2</v>
@@ -26019,8 +26752,8 @@
       <c r="F18" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G18" s="4" t="b">
-        <v>1</v>
+      <c r="G18" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H18" s="4">
         <v>5</v>
@@ -26076,8 +26809,8 @@
       <c r="F19" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G19" s="4" t="b">
-        <v>1</v>
+      <c r="G19" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H19" s="4">
         <v>9</v>
@@ -26133,8 +26866,8 @@
       <c r="F20" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G20" s="4" t="b">
-        <v>1</v>
+      <c r="G20" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H20" s="4">
         <v>16</v>
@@ -26187,8 +26920,8 @@
       <c r="F21" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G21" s="4" t="b">
-        <v>1</v>
+      <c r="G21" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H21" s="4">
         <v>18</v>
@@ -26244,8 +26977,8 @@
       <c r="F22" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G22" s="4" t="b">
-        <v>1</v>
+      <c r="G22" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H22" s="4">
         <v>18</v>
@@ -26301,8 +27034,8 @@
       <c r="F23" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G23" s="4" t="b">
-        <v>1</v>
+      <c r="G23" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H23" s="4">
         <v>4</v>
@@ -26358,8 +27091,8 @@
       <c r="F24" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G24" s="4" t="b">
-        <v>1</v>
+      <c r="G24" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H24" s="4">
         <v>10</v>
@@ -26415,8 +27148,8 @@
       <c r="F25" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G25" s="4" t="b">
-        <v>1</v>
+      <c r="G25" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H25" s="4">
         <v>14</v>
@@ -26472,8 +27205,8 @@
       <c r="F26" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G26" s="4" t="b">
-        <v>1</v>
+      <c r="G26" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H26" s="4">
         <v>21</v>
@@ -26529,8 +27262,8 @@
       <c r="F27" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G27" s="4" t="b">
-        <v>1</v>
+      <c r="G27" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H27" s="4">
         <v>24</v>
@@ -26586,8 +27319,8 @@
       <c r="F28" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G28" s="4" t="b">
-        <v>1</v>
+      <c r="G28" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H28" s="4">
         <v>0</v>
@@ -26641,8 +27374,8 @@
       <c r="F29" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G29" s="4" t="b">
-        <v>1</v>
+      <c r="G29" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H29" s="4">
         <v>0</v>
@@ -26696,8 +27429,8 @@
       <c r="F30" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G30" s="4" t="b">
-        <v>1</v>
+      <c r="G30" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H30" s="4">
         <v>0</v>
@@ -26751,8 +27484,8 @@
       <c r="F31" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G31" s="4" t="b">
-        <v>1</v>
+      <c r="G31" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H31" s="4">
         <v>0</v>
@@ -26806,8 +27539,8 @@
       <c r="F32" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G32" s="4" t="b">
-        <v>1</v>
+      <c r="G32" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H32" s="4">
         <v>0</v>
@@ -26858,8 +27591,8 @@
       <c r="F33" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G33" s="4" t="b">
-        <v>1</v>
+      <c r="G33" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H33" s="4">
         <v>2</v>
@@ -26915,8 +27648,8 @@
       <c r="F34" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G34" s="4" t="b">
-        <v>1</v>
+      <c r="G34" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H34" s="4">
         <v>2</v>
@@ -26972,8 +27705,8 @@
       <c r="F35" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G35" s="4" t="b">
-        <v>1</v>
+      <c r="G35" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H35" s="4">
         <v>2</v>
@@ -27029,8 +27762,8 @@
       <c r="F36" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G36" s="4" t="b">
-        <v>1</v>
+      <c r="G36" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H36" s="4">
         <v>1</v>
@@ -27086,8 +27819,8 @@
       <c r="F37" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G37" s="4" t="b">
-        <v>1</v>
+      <c r="G37" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H37" s="4">
         <v>10</v>
@@ -27140,8 +27873,8 @@
       <c r="F38" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G38" s="4" t="b">
-        <v>1</v>
+      <c r="G38" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H38" s="4">
         <v>16</v>
@@ -27197,8 +27930,8 @@
       <c r="F39" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G39" s="4" t="b">
-        <v>1</v>
+      <c r="G39" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H39" s="4">
         <v>16</v>
@@ -27254,8 +27987,8 @@
       <c r="F40" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G40" s="4" t="b">
-        <v>1</v>
+      <c r="G40" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H40" s="4">
         <v>13</v>
@@ -27311,8 +28044,8 @@
       <c r="F41" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G41" s="4" t="b">
-        <v>1</v>
+      <c r="G41" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H41" s="4">
         <v>10</v>
@@ -27368,8 +28101,8 @@
       <c r="F42" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G42" s="4" t="b">
-        <v>1</v>
+      <c r="G42" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H42" s="4">
         <v>6</v>
@@ -27425,8 +28158,8 @@
       <c r="F43" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G43" s="4" t="b">
-        <v>1</v>
+      <c r="G43" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H43" s="4">
         <v>4</v>
@@ -27482,8 +28215,8 @@
       <c r="F44" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G44" s="4" t="b">
-        <v>1</v>
+      <c r="G44" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H44" s="4">
         <v>4</v>
@@ -27537,8 +28270,8 @@
       <c r="F45" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G45" s="4" t="b">
-        <v>1</v>
+      <c r="G45" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H45" s="4">
         <v>4</v>
@@ -27592,8 +28325,8 @@
       <c r="F46" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G46" s="4" t="b">
-        <v>1</v>
+      <c r="G46" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H46" s="4">
         <v>1</v>
@@ -27649,8 +28382,8 @@
       <c r="F47" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G47" s="4" t="b">
-        <v>1</v>
+      <c r="G47" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H47" s="4">
         <v>1</v>
@@ -27704,8 +28437,8 @@
       <c r="F48" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G48" s="4" t="b">
-        <v>1</v>
+      <c r="G48" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H48" s="4">
         <v>1</v>
@@ -27757,8 +28490,8 @@
       <c r="F49" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G49" s="4" t="b">
-        <v>1</v>
+      <c r="G49" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H49" s="4">
         <v>3</v>
@@ -27814,8 +28547,8 @@
       <c r="F50" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G50" s="4" t="b">
-        <v>1</v>
+      <c r="G50" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H50" s="4">
         <v>3</v>
@@ -27871,8 +28604,8 @@
       <c r="F51" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G51" s="4" t="b">
-        <v>1</v>
+      <c r="G51" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H51" s="4">
         <v>1</v>
@@ -27925,8 +28658,8 @@
       <c r="F52" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G52" s="4" t="b">
-        <v>1</v>
+      <c r="G52" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H52" s="4">
         <v>14</v>
@@ -27980,8 +28713,8 @@
       <c r="F53" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G53" s="4" t="b">
-        <v>1</v>
+      <c r="G53" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H53" s="4">
         <v>14</v>
@@ -28035,8 +28768,8 @@
       <c r="F54" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G54" s="4" t="b">
-        <v>1</v>
+      <c r="G54" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H54" s="4">
         <v>11</v>
@@ -28090,8 +28823,8 @@
       <c r="F55" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G55" s="4" t="b">
-        <v>1</v>
+      <c r="G55" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H55" s="4">
         <v>8</v>
@@ -28145,8 +28878,8 @@
       <c r="F56" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G56" s="4" t="b">
-        <v>1</v>
+      <c r="G56" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H56" s="4">
         <v>8</v>
@@ -28200,8 +28933,8 @@
       <c r="F57" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G57" s="4" t="b">
-        <v>1</v>
+      <c r="G57" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H57" s="4">
         <v>6</v>
@@ -28257,8 +28990,8 @@
       <c r="F58" s="4" t="s">
         <v>611</v>
       </c>
-      <c r="G58" s="4" t="b">
-        <v>1</v>
+      <c r="G58" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H58" s="4">
         <v>17</v>
@@ -28305,8 +29038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A95494-D93A-488E-BB20-AD4299697A7E}">
   <dimension ref="A1:AF44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28331,7 +29064,7 @@
         <v>315</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>955</v>
+        <v>1098</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>8</v>
@@ -28525,7 +29258,9 @@
       <c r="F4" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>1099</v>
+      </c>
       <c r="H4" s="4">
         <v>10</v>
       </c>
@@ -28578,7 +29313,9 @@
       <c r="F5" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="G5" s="4"/>
+      <c r="G5" s="4" t="s">
+        <v>1099</v>
+      </c>
       <c r="H5" s="4">
         <v>20</v>
       </c>
@@ -28631,7 +29368,9 @@
       <c r="F6" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4" t="s">
+        <v>1099</v>
+      </c>
       <c r="H6" s="4">
         <v>8</v>
       </c>
@@ -28687,7 +29426,9 @@
       <c r="F7" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="G7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>1099</v>
+      </c>
       <c r="H7" s="4">
         <v>8</v>
       </c>
@@ -28740,7 +29481,9 @@
       <c r="F8" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="G8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>1099</v>
+      </c>
       <c r="H8" s="4">
         <v>40</v>
       </c>
@@ -28793,7 +29536,9 @@
       <c r="F9" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="G9" s="4"/>
+      <c r="G9" s="4" t="s">
+        <v>1099</v>
+      </c>
       <c r="H9" s="4">
         <v>7</v>
       </c>
@@ -28846,7 +29591,9 @@
       <c r="F10" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G10" s="4" t="s">
+        <v>1099</v>
+      </c>
       <c r="H10" s="4">
         <v>0</v>
       </c>
@@ -28899,7 +29646,9 @@
       <c r="F11" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="G11" s="4"/>
+      <c r="G11" s="4" t="s">
+        <v>1099</v>
+      </c>
       <c r="H11" s="4">
         <v>0</v>
       </c>
@@ -28952,7 +29701,9 @@
       <c r="F12" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="4" t="s">
+        <v>1099</v>
+      </c>
       <c r="H12" s="4">
         <v>0</v>
       </c>
@@ -29003,7 +29754,9 @@
       <c r="F13" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="G13" s="4"/>
+      <c r="G13" s="4" t="s">
+        <v>1099</v>
+      </c>
       <c r="H13" s="4">
         <v>0</v>
       </c>
@@ -29059,7 +29812,9 @@
       <c r="F14" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="4" t="s">
+        <v>1099</v>
+      </c>
       <c r="H14" s="4">
         <v>0</v>
       </c>
@@ -29112,7 +29867,9 @@
       <c r="F15" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="G15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>1099</v>
+      </c>
       <c r="H15" s="4">
         <v>0</v>
       </c>
@@ -29165,7 +29922,9 @@
       <c r="F16" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>1099</v>
+      </c>
       <c r="H16" s="4">
         <v>0</v>
       </c>
@@ -29216,7 +29975,9 @@
       <c r="F17" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="G17" s="4"/>
+      <c r="G17" s="4" t="s">
+        <v>1099</v>
+      </c>
       <c r="H17" s="4">
         <v>0</v>
       </c>
@@ -29272,7 +30033,9 @@
       <c r="F18" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="4" t="s">
+        <v>1099</v>
+      </c>
       <c r="H18" s="4">
         <v>0</v>
       </c>
@@ -29325,7 +30088,9 @@
       <c r="F19" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="G19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>1099</v>
+      </c>
       <c r="H19" s="4">
         <v>0</v>
       </c>
@@ -29381,7 +30146,9 @@
       <c r="F20" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="G20" s="4" t="s">
+        <v>1099</v>
+      </c>
       <c r="H20" s="4">
         <v>0</v>
       </c>
@@ -29434,7 +30201,9 @@
       <c r="F21" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="G21" s="4"/>
+      <c r="G21" s="4" t="s">
+        <v>1099</v>
+      </c>
       <c r="H21" s="4">
         <v>0</v>
       </c>
@@ -29487,7 +30256,9 @@
       <c r="F22" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="4" t="s">
+        <v>1099</v>
+      </c>
       <c r="H22" s="4">
         <v>0</v>
       </c>
@@ -29543,7 +30314,9 @@
       <c r="F23" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="G23" s="4"/>
+      <c r="G23" s="4" t="s">
+        <v>1099</v>
+      </c>
       <c r="H23" s="4">
         <v>0</v>
       </c>
@@ -29599,7 +30372,9 @@
       <c r="F24" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="G24" s="4"/>
+      <c r="G24" s="4" t="s">
+        <v>1099</v>
+      </c>
       <c r="H24" s="4">
         <v>0</v>
       </c>
@@ -29652,7 +30427,9 @@
       <c r="F25" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="G25" s="4"/>
+      <c r="G25" s="4" t="s">
+        <v>1099</v>
+      </c>
       <c r="H25" s="4">
         <v>20</v>
       </c>
@@ -29703,7 +30480,9 @@
       <c r="F26" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="G26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>1099</v>
+      </c>
       <c r="H26" s="4">
         <v>15</v>
       </c>
@@ -29756,7 +30535,9 @@
       <c r="F27" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="G27" s="4"/>
+      <c r="G27" s="4" t="s">
+        <v>1099</v>
+      </c>
       <c r="H27" s="4">
         <v>40</v>
       </c>
@@ -29812,7 +30593,9 @@
       <c r="F28" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="G28" s="4"/>
+      <c r="G28" s="4" t="s">
+        <v>1099</v>
+      </c>
       <c r="H28" s="4">
         <v>40</v>
       </c>
@@ -29865,7 +30648,9 @@
       <c r="F29" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="G29" s="4"/>
+      <c r="G29" s="4" t="s">
+        <v>1099</v>
+      </c>
       <c r="H29" s="4">
         <v>255</v>
       </c>
@@ -29919,7 +30704,9 @@
       <c r="F30" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="G30" s="4"/>
+      <c r="G30" s="4" t="s">
+        <v>1099</v>
+      </c>
       <c r="H30" s="4">
         <v>255</v>
       </c>
@@ -29973,7 +30760,9 @@
       <c r="F31" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="G31" s="4"/>
+      <c r="G31" s="4" t="s">
+        <v>1099</v>
+      </c>
       <c r="H31" s="4">
         <v>255</v>
       </c>
@@ -30024,7 +30813,9 @@
       <c r="F32" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="G32" s="4"/>
+      <c r="G32" s="4" t="s">
+        <v>1099</v>
+      </c>
       <c r="H32" s="4">
         <v>0</v>
       </c>
@@ -30077,7 +30868,9 @@
       <c r="F33" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="G33" s="4"/>
+      <c r="G33" s="4" t="s">
+        <v>1099</v>
+      </c>
       <c r="H33" s="4">
         <v>0</v>
       </c>
@@ -30130,7 +30923,9 @@
       <c r="F34" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="G34" s="4"/>
+      <c r="G34" s="4" t="s">
+        <v>1099</v>
+      </c>
       <c r="H34" s="4">
         <v>0</v>
       </c>
@@ -30186,7 +30981,9 @@
       <c r="F35" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="G35" s="4"/>
+      <c r="G35" s="4" t="s">
+        <v>1099</v>
+      </c>
       <c r="H35" s="4">
         <v>20</v>
       </c>
@@ -30242,7 +31039,9 @@
       <c r="F36" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="G36" s="4"/>
+      <c r="G36" s="4" t="s">
+        <v>1099</v>
+      </c>
       <c r="H36" s="4">
         <v>0</v>
       </c>
@@ -30295,7 +31094,9 @@
       <c r="F37" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="G37" s="4"/>
+      <c r="G37" s="4" t="s">
+        <v>1099</v>
+      </c>
       <c r="H37" s="4">
         <v>0</v>
       </c>
@@ -30351,7 +31152,9 @@
       <c r="F38" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="G38" s="4"/>
+      <c r="G38" s="4" t="s">
+        <v>1099</v>
+      </c>
       <c r="H38" s="4">
         <v>20</v>
       </c>
@@ -30407,7 +31210,9 @@
       <c r="F39" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="G39" s="4"/>
+      <c r="G39" s="4" t="s">
+        <v>1099</v>
+      </c>
       <c r="H39" s="4">
         <v>0</v>
       </c>
@@ -30463,7 +31268,9 @@
       <c r="F40" s="7" t="s">
         <v>780</v>
       </c>
-      <c r="G40" s="7"/>
+      <c r="G40" s="4" t="s">
+        <v>1099</v>
+      </c>
       <c r="H40" s="7">
         <v>0</v>
       </c>
@@ -30516,7 +31323,9 @@
       <c r="F41" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="G41" s="4"/>
+      <c r="G41" s="4" t="s">
+        <v>1099</v>
+      </c>
       <c r="H41" s="4">
         <v>10</v>
       </c>
@@ -30572,7 +31381,9 @@
       <c r="F42" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="G42" s="4"/>
+      <c r="G42" s="4" t="s">
+        <v>1099</v>
+      </c>
       <c r="H42" s="4">
         <v>10</v>
       </c>
@@ -30625,7 +31436,9 @@
       <c r="F43" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="G43" s="4"/>
+      <c r="G43" s="4" t="s">
+        <v>1099</v>
+      </c>
       <c r="H43" s="4">
         <v>0</v>
       </c>
@@ -30681,7 +31494,9 @@
       <c r="F44" s="4" t="s">
         <v>780</v>
       </c>
-      <c r="G44" s="4"/>
+      <c r="G44" s="4" t="s">
+        <v>1099</v>
+      </c>
       <c r="H44" s="4">
         <v>0</v>
       </c>
@@ -30731,7 +31546,7 @@
   <dimension ref="A1:AF665"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30766,7 +31581,7 @@
         <v>315</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>955</v>
+        <v>1098</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>8</v>
@@ -30960,7 +31775,9 @@
       <c r="F4" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="G4" s="14"/>
+      <c r="G4" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H4" s="14">
         <v>5</v>
       </c>
@@ -31012,7 +31829,9 @@
       <c r="F5" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="G5" s="14"/>
+      <c r="G5" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H5" s="14">
         <v>2</v>
       </c>
@@ -31064,7 +31883,9 @@
       <c r="F6" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="G6" s="14"/>
+      <c r="G6" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H6" s="14">
         <v>5</v>
       </c>
@@ -31116,7 +31937,9 @@
       <c r="F7" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="G7" s="14"/>
+      <c r="G7" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H7" s="14">
         <v>8</v>
       </c>
@@ -31168,7 +31991,9 @@
       <c r="F8" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="G8" s="14"/>
+      <c r="G8" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H8" s="14">
         <v>4</v>
       </c>
@@ -31220,7 +32045,9 @@
       <c r="F9" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="G9" s="14"/>
+      <c r="G9" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H9" s="14">
         <v>9</v>
       </c>
@@ -31272,7 +32099,9 @@
       <c r="F10" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="G10" s="14"/>
+      <c r="G10" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H10" s="14">
         <v>11</v>
       </c>
@@ -31324,7 +32153,9 @@
       <c r="F11" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="G11" s="14"/>
+      <c r="G11" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H11" s="14">
         <v>3</v>
       </c>
@@ -31374,7 +32205,9 @@
       <c r="F12" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="G12" s="14"/>
+      <c r="G12" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H12" s="14">
         <v>5</v>
       </c>
@@ -31429,7 +32262,9 @@
       <c r="F13" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="G13" s="14"/>
+      <c r="G13" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H13" s="14">
         <v>5</v>
       </c>
@@ -31484,8 +32319,8 @@
       <c r="F14" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="G14" s="14" t="b">
-        <v>1</v>
+      <c r="G14" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H14" s="14">
         <v>10</v>
@@ -31541,8 +32376,8 @@
       <c r="F15" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="G15" s="14" t="b">
-        <v>1</v>
+      <c r="G15" s="4" t="s">
+        <v>1096</v>
       </c>
       <c r="H15" s="14">
         <v>10</v>
@@ -31598,7 +32433,9 @@
       <c r="F16" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="G16" s="14"/>
+      <c r="G16" s="4" t="s">
+        <v>1097</v>
+      </c>
       <c r="H16" s="14">
         <v>8</v>
       </c>

--- a/Datas/Items.xlsx
+++ b/Datas/Items.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeSLGConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3370D80-998D-4A8B-B795-31A159DD2BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFA6211-EC73-4A8D-85F9-C772B4C4907D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-2760" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{BA0B8D6F-A68B-456F-A5A6-9F876B2FDE92}"/>
+    <workbookView xWindow="28680" yWindow="-2760" windowWidth="29040" windowHeight="15720" xr2:uid="{BA0B8D6F-A68B-456F-A5A6-9F876B2FDE92}"/>
   </bookViews>
   <sheets>
     <sheet name="item" sheetId="14" r:id="rId1"/>
-    <sheet name="lance" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>##var</t>
   </si>
@@ -58,6 +57,48 @@
   </si>
   <si>
     <t>##</t>
+  </si>
+  <si>
+    <t>Quality</t>
+  </si>
+  <si>
+    <t>IronRing</t>
+  </si>
+  <si>
+    <t>Icon</t>
+  </si>
+  <si>
+    <t>icon_400503</t>
+  </si>
+  <si>
+    <t>icon_100101</t>
+  </si>
+  <si>
+    <t>BubbleTea</t>
+  </si>
+  <si>
+    <t>Des</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this is IronRing </t>
+  </si>
+  <si>
+    <t>this is BubbleTea</t>
+  </si>
+  <si>
+    <t>effectId</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>useInCombat</t>
+  </si>
+  <si>
+    <t>useOutCombat</t>
+  </si>
+  <si>
+    <t>param1</t>
   </si>
 </sst>
 </file>
@@ -101,7 +142,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -124,17 +165,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -450,15 +517,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9E1DDF-1A81-4371-8A45-25A460B7866A}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" customWidth="1"/>
+    <col min="8" max="8" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,8 +545,29 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -479,8 +577,29 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -491,67 +610,65 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C81BA17-7A92-4391-BDBE-0FA9BEC16915}">
-  <dimension ref="A1:M3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="b">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>101</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>80</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Datas/Items.xlsx
+++ b/Datas/Items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeSLGConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFA6211-EC73-4A8D-85F9-C772B4C4907D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6980D2E8-BEE7-41A0-ABFC-BA1071CD5D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2760" windowWidth="29040" windowHeight="15720" xr2:uid="{BA0B8D6F-A68B-456F-A5A6-9F876B2FDE92}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>##var</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>param1</t>
+  </si>
+  <si>
+    <t>Price</t>
   </si>
 </sst>
 </file>
@@ -517,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9E1DDF-1A81-4371-8A45-25A460B7866A}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -528,14 +531,14 @@
     <col min="2" max="2" width="9.33203125" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" customWidth="1"/>
-    <col min="7" max="7" width="10.21875" customWidth="1"/>
-    <col min="8" max="8" width="15.33203125" customWidth="1"/>
-    <col min="9" max="9" width="18.88671875" customWidth="1"/>
-    <col min="10" max="10" width="12.21875" customWidth="1"/>
+    <col min="6" max="7" width="17.21875" customWidth="1"/>
+    <col min="8" max="8" width="10.21875" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" customWidth="1"/>
+    <col min="10" max="10" width="18.88671875" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -554,20 +557,23 @@
       <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -590,16 +596,19 @@
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I2" t="s">
         <v>17</v>
       </c>
       <c r="J2" t="s">
+        <v>17</v>
+      </c>
+      <c r="K2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -610,12 +619,13 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="H3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>100</v>
       </c>
@@ -632,16 +642,19 @@
         <v>14</v>
       </c>
       <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="H4" t="b">
+      <c r="I4" t="b">
         <v>0</v>
       </c>
-      <c r="I4" t="b">
+      <c r="J4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>101</v>
       </c>
@@ -658,15 +671,18 @@
         <v>15</v>
       </c>
       <c r="G5">
+        <v>20</v>
+      </c>
+      <c r="H5">
         <v>100</v>
-      </c>
-      <c r="H5" t="b">
-        <v>1</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="b">
+        <v>1</v>
+      </c>
+      <c r="K5">
         <v>80</v>
       </c>
     </row>

--- a/Datas/Items.xlsx
+++ b/Datas/Items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeSLGConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6980D2E8-BEE7-41A0-ABFC-BA1071CD5D9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401E5BAF-DF52-4BD0-9114-9B41761893F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2760" windowWidth="29040" windowHeight="15720" xr2:uid="{BA0B8D6F-A68B-456F-A5A6-9F876B2FDE92}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>##var</t>
   </si>
@@ -102,6 +102,12 @@
   </si>
   <si>
     <t>Price</t>
+  </si>
+  <si>
+    <t>GoldCoin</t>
+  </si>
+  <si>
+    <t>icon_coin</t>
   </si>
 </sst>
 </file>
@@ -520,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9E1DDF-1A81-4371-8A45-25A460B7866A}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -686,6 +692,35 @@
         <v>80</v>
       </c>
     </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>102</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Datas/Items.xlsx
+++ b/Datas/Items.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeSLGConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{401E5BAF-DF52-4BD0-9114-9B41761893F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2974B5C-4817-44EF-9281-BD64D3F4C11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-2760" windowWidth="29040" windowHeight="15720" xr2:uid="{BA0B8D6F-A68B-456F-A5A6-9F876B2FDE92}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
   <si>
     <t>##var</t>
   </si>
@@ -108,6 +108,39 @@
   </si>
   <si>
     <t>icon_coin</t>
+  </si>
+  <si>
+    <t>Colobus</t>
+  </si>
+  <si>
+    <t>Gecko</t>
+  </si>
+  <si>
+    <t>Herring</t>
+  </si>
+  <si>
+    <t>Muskrat</t>
+  </si>
+  <si>
+    <t>Pudu</t>
+  </si>
+  <si>
+    <t>Sparrow</t>
+  </si>
+  <si>
+    <t>Squid</t>
+  </si>
+  <si>
+    <t>Taipan</t>
+  </si>
+  <si>
+    <t>ModelName</t>
+  </si>
+  <si>
+    <t>IronRing: summon every type of npc for each.</t>
+  </si>
+  <si>
+    <t>BubbleTea: eliminate all npc</t>
   </si>
 </sst>
 </file>
@@ -526,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9E1DDF-1A81-4371-8A45-25A460B7866A}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,9 +575,10 @@
     <col min="9" max="9" width="15.33203125" customWidth="1"/>
     <col min="10" max="10" width="18.88671875" customWidth="1"/>
     <col min="11" max="11" width="12.21875" customWidth="1"/>
+    <col min="12" max="12" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,8 +612,11 @@
       <c r="K1" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -613,8 +650,11 @@
       <c r="K2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -630,8 +670,9 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>100</v>
       </c>
@@ -645,13 +686,13 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="G4">
         <v>10</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="I4" t="b">
         <v>0</v>
@@ -659,8 +700,11 @@
       <c r="J4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>101</v>
       </c>
@@ -674,13 +718,13 @@
         <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="G5">
         <v>20</v>
       </c>
       <c r="H5">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
@@ -691,8 +735,11 @@
       <c r="K5">
         <v>80</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="L5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>102</v>
       </c>
@@ -719,6 +766,217 @@
       </c>
       <c r="J6" t="b">
         <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>103</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>101</v>
+      </c>
+      <c r="L7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>104</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>101</v>
+      </c>
+      <c r="L8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>105</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>106</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>101</v>
+      </c>
+      <c r="L10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>107</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>101</v>
+      </c>
+      <c r="L11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>108</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G12">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <v>101</v>
+      </c>
+      <c r="L12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>109</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13">
+        <v>7</v>
+      </c>
+      <c r="H13">
+        <v>101</v>
+      </c>
+      <c r="L13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>110</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G14">
+        <v>8</v>
+      </c>
+      <c r="H14">
+        <v>101</v>
+      </c>
+      <c r="L14" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Datas/Items.xlsx
+++ b/Datas/Items.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeSLGConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2974B5C-4817-44EF-9281-BD64D3F4C11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0915DB0D-41CC-4105-98D4-D2E7040D37FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-2760" windowWidth="29040" windowHeight="15720" xr2:uid="{BA0B8D6F-A68B-456F-A5A6-9F876B2FDE92}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{BA0B8D6F-A68B-456F-A5A6-9F876B2FDE92}"/>
   </bookViews>
   <sheets>
     <sheet name="item" sheetId="14" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
   <si>
     <t>##var</t>
   </si>
@@ -62,92 +62,65 @@
     <t>Quality</t>
   </si>
   <si>
-    <t>IronRing</t>
-  </si>
-  <si>
     <t>Icon</t>
   </si>
   <si>
-    <t>icon_400503</t>
-  </si>
-  <si>
-    <t>icon_100101</t>
-  </si>
-  <si>
-    <t>BubbleTea</t>
-  </si>
-  <si>
     <t>Des</t>
   </si>
   <si>
-    <t xml:space="preserve">this is IronRing </t>
-  </si>
-  <si>
-    <t>this is BubbleTea</t>
-  </si>
-  <si>
     <t>effectId</t>
   </si>
   <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>useInCombat</t>
-  </si>
-  <si>
-    <t>useOutCombat</t>
-  </si>
-  <si>
-    <t>param1</t>
-  </si>
-  <si>
     <t>Price</t>
   </si>
   <si>
-    <t>GoldCoin</t>
-  </si>
-  <si>
     <t>icon_coin</t>
   </si>
   <si>
-    <t>Colobus</t>
-  </si>
-  <si>
-    <t>Gecko</t>
-  </si>
-  <si>
-    <t>Herring</t>
-  </si>
-  <si>
-    <t>Muskrat</t>
-  </si>
-  <si>
-    <t>Pudu</t>
-  </si>
-  <si>
-    <t>Sparrow</t>
-  </si>
-  <si>
-    <t>Squid</t>
-  </si>
-  <si>
-    <t>Taipan</t>
-  </si>
-  <si>
     <t>ModelName</t>
   </si>
   <si>
-    <t>IronRing: summon every type of npc for each.</t>
-  </si>
-  <si>
-    <t>BubbleTea: eliminate all npc</t>
+    <t>Log</t>
+  </si>
+  <si>
+    <t>Stick</t>
+  </si>
+  <si>
+    <t>Stone</t>
+  </si>
+  <si>
+    <t>Iron Bar</t>
+  </si>
+  <si>
+    <t>Straw</t>
+  </si>
+  <si>
+    <t>Leather</t>
+  </si>
+  <si>
+    <t>Linen Thread</t>
+  </si>
+  <si>
+    <t>Wool Thread</t>
+  </si>
+  <si>
+    <t>Plank</t>
+  </si>
+  <si>
+    <t>Copper Bar</t>
+  </si>
+  <si>
+    <t>Bronze Bar</t>
+  </si>
+  <si>
+    <t>float</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -163,9 +136,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF111111"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -184,7 +171,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -218,31 +205,29 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -559,26 +544,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B9E1DDF-1A81-4371-8A45-25A460B7866A}">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
-    <col min="6" max="7" width="17.21875" customWidth="1"/>
-    <col min="8" max="8" width="10.21875" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" customWidth="1"/>
-    <col min="10" max="10" width="18.88671875" customWidth="1"/>
-    <col min="11" max="11" width="12.21875" customWidth="1"/>
-    <col min="12" max="12" width="17.21875" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="3"/>
+    <col min="2" max="2" width="9.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" style="3"/>
+    <col min="5" max="5" width="18.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -588,396 +574,294 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="3">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="3">
+        <v>6</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="3">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="3">
+        <v>8</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s">
-        <v>3</v>
-      </c>
-      <c r="L2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B4">
-        <v>100</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="3">
         <v>10</v>
       </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4">
-        <v>10</v>
-      </c>
-      <c r="H4">
-        <v>102</v>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <v>101</v>
-      </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="C13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="3">
         <v>11</v>
       </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5">
-        <v>20</v>
-      </c>
-      <c r="H5">
-        <v>103</v>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>80</v>
-      </c>
-      <c r="L5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <v>102</v>
-      </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B7">
-        <v>103</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="C14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>101</v>
-      </c>
-      <c r="L7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <v>104</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>101</v>
-      </c>
-      <c r="L8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <v>105</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9">
-        <v>3</v>
-      </c>
-      <c r="H9">
-        <v>101</v>
-      </c>
-      <c r="L9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <v>106</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10">
-        <v>4</v>
-      </c>
-      <c r="H10">
-        <v>101</v>
-      </c>
-      <c r="L10" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B11">
-        <v>107</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11">
-        <v>5</v>
-      </c>
-      <c r="H11">
-        <v>101</v>
-      </c>
-      <c r="L11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B12">
-        <v>108</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12">
-        <v>6</v>
-      </c>
-      <c r="H12">
-        <v>101</v>
-      </c>
-      <c r="L12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B13">
-        <v>109</v>
-      </c>
-      <c r="C13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13">
-        <v>7</v>
-      </c>
-      <c r="H13">
-        <v>101</v>
-      </c>
-      <c r="L13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B14">
-        <v>110</v>
-      </c>
-      <c r="C14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14">
-        <v>8</v>
-      </c>
-      <c r="H14">
-        <v>101</v>
-      </c>
-      <c r="L14" t="s">
-        <v>31</v>
-      </c>
+      <c r="G14" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C15" s="7"/>
+      <c r="F15" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Datas/Items.xlsx
+++ b/Datas/Items.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeSLGConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0915DB0D-41CC-4105-98D4-D2E7040D37FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B94393-750B-4319-97CC-03C9BBDAAEB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{BA0B8D6F-A68B-456F-A5A6-9F876B2FDE92}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{BA0B8D6F-A68B-456F-A5A6-9F876B2FDE92}"/>
   </bookViews>
   <sheets>
     <sheet name="item" sheetId="14" r:id="rId1"/>
@@ -547,7 +547,7 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="B1" sqref="B1:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Datas/Items.xlsx
+++ b/Datas/Items.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\SunHeSLGConfigs\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29B94393-750B-4319-97CC-03C9BBDAAEB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC68C3E-B247-4D40-808E-F8D6BC768793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{BA0B8D6F-A68B-456F-A5A6-9F876B2FDE92}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BA0B8D6F-A68B-456F-A5A6-9F876B2FDE92}"/>
   </bookViews>
   <sheets>
     <sheet name="item" sheetId="14" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="25">
   <si>
     <t>##var</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>Price</t>
-  </si>
-  <si>
-    <t>icon_coin</t>
   </si>
   <si>
     <t>ModelName</t>
@@ -547,24 +544,24 @@
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B15"/>
+      <selection activeCell="E4" sqref="E4:E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="3"/>
-    <col min="2" max="2" width="9.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.85546875" style="3"/>
-    <col min="5" max="5" width="18.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="14.140625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="8.88671875" style="3"/>
+    <col min="2" max="2" width="9.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="3"/>
+    <col min="5" max="5" width="18.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -590,10 +587,10 @@
         <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -613,7 +610,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>3</v>
@@ -622,7 +619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -639,227 +636,227 @@
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="3">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B5" s="3">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="3">
         <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
+      <c r="E6" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G6" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B7" s="3">
         <v>4</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D7" s="3">
         <v>1</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>12</v>
+      <c r="E7" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B8" s="3">
         <v>5</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="3">
         <v>1</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>12</v>
+      <c r="E8" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G8" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B9" s="3">
         <v>6</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" s="3">
         <v>1</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>12</v>
+      <c r="E9" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G9" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>7</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>12</v>
+      <c r="E10" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B11" s="3">
         <v>8</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>12</v>
+      <c r="E11" s="5" t="s">
+        <v>20</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G11" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B12" s="3">
         <v>9</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="3">
         <v>1</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>12</v>
+      <c r="E12" s="5" t="s">
+        <v>21</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G12" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B13" s="3">
         <v>10</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D13" s="3">
         <v>1</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>12</v>
+      <c r="E13" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G13" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B14" s="3">
         <v>11</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" s="3">
         <v>1</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>12</v>
+      <c r="E14" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G14" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="7"/>
       <c r="F15" s="7"/>
     </row>
